--- a/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.3602347106357</v>
+        <v>-2.051824888323993</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.290508465037278</v>
+        <v>-1.879614851397042</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.838030951531806</v>
+        <v>-2.009429253467608</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.542445351969001</v>
+        <v>-2.779819324086489</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3286873061775</v>
+        <v>-0.2858671650101911</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3360153058587124</v>
+        <v>-0.2937736851573554</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3114098508214594</v>
+        <v>-0.3363613320778353</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5747507955899726</v>
+        <v>-0.5717362644729657</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.739934207121754</v>
+        <v>1.826633986630708</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.839608988213956</v>
+        <v>1.895759091849271</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.354699636628291</v>
+        <v>2.228429472268907</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9295301700073453</v>
+        <v>0.8627911296801268</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3584167833955753</v>
+        <v>0.3761892630748936</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4234702743495536</v>
+        <v>0.4289967543417532</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.620558611874451</v>
+        <v>0.6131173039958332</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4095152829419622</v>
+        <v>0.4595365153238522</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>-0.05453262884169129</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3764680772661322</v>
+        <v>0.3764680772661318</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.367912048979848</v>
+        <v>0.3329694254289685</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1611007436040252</v>
+        <v>-0.005211928116276954</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.492562588553068</v>
+        <v>-1.496791288426067</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.1530093114048202</v>
+        <v>-0.1231613102518792</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07078064369440806</v>
+        <v>0.05895079730838822</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02090994623450836</v>
+        <v>-0.003254576942311242</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2978075742822648</v>
+        <v>-0.310879639295944</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07186218760956956</v>
+        <v>-0.04819177930998621</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.7501192793824</v>
+        <v>3.503819339051641</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.314412705225483</v>
+        <v>3.287812826636888</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.022549192059108</v>
+        <v>1.066955367355453</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.161734456136537</v>
+        <v>2.23536951813771</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.038104228954848</v>
+        <v>0.9547722867893413</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7097873629133025</v>
+        <v>0.7085516130923456</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2842523154090895</v>
+        <v>0.3069050094561289</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9711166071756854</v>
+        <v>1.004454371268499</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.56754158999164</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3533672453718037</v>
+        <v>0.3533672453718034</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3519636289686305</v>
@@ -849,7 +849,7 @@
         <v>0.4447165276342486</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1581677796238473</v>
+        <v>0.1581677796238472</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.691173579075093</v>
+        <v>-1.505737831994299</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.082492688743392</v>
+        <v>2.035298543230657</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8162192987577748</v>
+        <v>-0.8986549714586808</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.37892589979192</v>
+        <v>-1.400372750727084</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3396064461663321</v>
+        <v>-0.3150492937948416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8090100510582516</v>
+        <v>0.8104242308676526</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1894927059870823</v>
+        <v>-0.2171640746176492</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4619940388351957</v>
+        <v>-0.4676858309126981</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.042758667411702</v>
+        <v>3.861227370587454</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.773883940751922</v>
+        <v>6.964263321572862</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.185963719314416</v>
+        <v>4.184898640325748</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.269292948764395</v>
+        <v>2.218603791901955</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.87376016201038</v>
+        <v>1.538105552648871</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>13.20352722386952</v>
+        <v>14.13622825412343</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.725029999179386</v>
+        <v>1.619973029515492</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.67042064755661</v>
+        <v>1.571888805288007</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.2410938694584336</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5463261527234666</v>
+        <v>0.5463261527234676</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2386359072924679</v>
@@ -949,7 +949,7 @@
         <v>0.05579101999766389</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2007954999099479</v>
+        <v>0.2007954999099483</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.621320204445923e-05</v>
+        <v>-0.02623053031808758</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3330109920422418</v>
+        <v>0.4387048844292654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.7007330812347129</v>
+        <v>-0.783641414316763</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.2660904988935642</v>
+        <v>-0.3584959502960225</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.008340845379911532</v>
+        <v>-0.005378095532949306</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06346420186925911</v>
+        <v>0.08158444042709845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1459347342228775</v>
+        <v>-0.1604205712605586</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1002477983279835</v>
+        <v>-0.1190374860810443</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.311887060960673</v>
+        <v>2.328904737691338</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.566633643170548</v>
+        <v>2.571409920906913</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.196606418755267</v>
+        <v>1.255119106892668</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.488465741918072</v>
+        <v>1.384131957732713</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5385479988127034</v>
+        <v>0.5656005629362771</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6109123746981242</v>
+        <v>0.5983661899530626</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3092539174516263</v>
+        <v>0.3392401946496014</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6416437230194034</v>
+        <v>0.5816995724569957</v>
       </c>
     </row>
     <row r="16">
